--- a/doc/数据设计/mongo.xlsx
+++ b/doc/数据设计/mongo.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="doc" sheetId="1" r:id="rId1"/>
+    <sheet name="dog" sheetId="3" r:id="rId2"/>
+    <sheet name="article" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +59,209 @@
   </si>
   <si>
     <t>6-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"文章"，"博客","百科","活动"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id2</t>
+  </si>
+  <si>
+    <t>id3</t>
+  </si>
+  <si>
+    <t>id4</t>
+  </si>
+  <si>
+    <t>父亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id5</t>
+  </si>
+  <si>
+    <t>id6</t>
+  </si>
+  <si>
+    <t>id7</t>
+  </si>
+  <si>
+    <t>id8</t>
+  </si>
+  <si>
+    <t>id9</t>
+  </si>
+  <si>
+    <t>id10</t>
+  </si>
+  <si>
+    <t>id11</t>
+  </si>
+  <si>
+    <t>id12</t>
+  </si>
+  <si>
+    <t>id13</t>
+  </si>
+  <si>
+    <t>id14</t>
+  </si>
+  <si>
+    <t>祖父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外祖父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外祖母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾祖父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾祖母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁殖者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花色分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血统类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>族谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,9 +305,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,56 +621,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="C11:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="F18:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/数据设计/mongo.xlsx
+++ b/doc/数据设计/mongo.xlsx
@@ -312,10 +312,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,14 +762,14 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -780,8 +780,8 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
@@ -790,8 +790,8 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
@@ -800,8 +800,8 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
@@ -810,8 +810,8 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
@@ -820,8 +820,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
@@ -830,8 +830,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
@@ -840,8 +840,8 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
@@ -850,8 +850,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
@@ -860,8 +860,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
@@ -870,8 +870,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
@@ -880,8 +880,8 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
@@ -890,8 +890,8 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
@@ -900,8 +900,8 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
